--- a/tests/fixtures/diffmat.xlsx
+++ b/tests/fixtures/diffmat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyPy\Packages\fltk\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA9E4C5-D3E5-4061-B81C-07FEAC6C1ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED4129-5715-4FF6-AC2E-F9D8433DD601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,13 @@
     <sheet name="rolly" sheetId="3" r:id="rId3"/>
     <sheet name="qrtr_old" sheetId="4" r:id="rId4"/>
     <sheet name="rolly_old" sheetId="5" r:id="rId5"/>
-    <sheet name="final_data" sheetId="6" r:id="rId6"/>
-    <sheet name="invalid_data" sheetId="7" r:id="rId7"/>
-    <sheet name="undetermined_data" sheetId="8" r:id="rId8"/>
-    <sheet name="valid_data" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="25">
   <si>
     <t>entity</t>
   </si>
@@ -103,12 +99,6 @@
   </si>
   <si>
     <t>idx</t>
-  </si>
-  <si>
-    <t>rolly_amt</t>
-  </si>
-  <si>
-    <t>idx_from</t>
   </si>
 </sst>
 </file>
@@ -554,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2089,1751 +2079,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>160</v>
-      </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>160</v>
-      </c>
-      <c r="H2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>220</v>
-      </c>
-      <c r="H3">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>125</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>205</v>
-      </c>
-      <c r="H4">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>156</v>
-      </c>
-      <c r="F5">
-        <v>31</v>
-      </c>
-      <c r="G5">
-        <v>196</v>
-      </c>
-      <c r="H5">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>195</v>
-      </c>
-      <c r="F6">
-        <v>39</v>
-      </c>
-      <c r="G6">
-        <v>195</v>
-      </c>
-      <c r="H6">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>125</v>
-      </c>
-      <c r="F7">
-        <v>125</v>
-      </c>
-      <c r="G7">
-        <v>220</v>
-      </c>
-      <c r="H7">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>156</v>
-      </c>
-      <c r="F8">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>226</v>
-      </c>
-      <c r="H8">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>195</v>
-      </c>
-      <c r="F9">
-        <v>39</v>
-      </c>
-      <c r="G9">
-        <v>234</v>
-      </c>
-      <c r="H9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>244</v>
-      </c>
-      <c r="F10">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>244</v>
-      </c>
-      <c r="H10">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>150</v>
-      </c>
-      <c r="F11">
-        <v>150</v>
-      </c>
-      <c r="G11">
-        <v>269</v>
-      </c>
-      <c r="H11">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>120</v>
-      </c>
-      <c r="F12">
-        <v>30</v>
-      </c>
-      <c r="G12">
-        <v>120</v>
-      </c>
-      <c r="H12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>70</v>
-      </c>
-      <c r="F13">
-        <v>70</v>
-      </c>
-      <c r="G13">
-        <v>160</v>
-      </c>
-      <c r="H13">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>88</v>
-      </c>
-      <c r="F14">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>148</v>
-      </c>
-      <c r="H14">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>110</v>
-      </c>
-      <c r="F15">
-        <v>22</v>
-      </c>
-      <c r="G15">
-        <v>140</v>
-      </c>
-      <c r="H15">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>138</v>
-      </c>
-      <c r="F16">
-        <v>28</v>
-      </c>
-      <c r="G16">
-        <v>138</v>
-      </c>
-      <c r="H16">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>168</v>
-      </c>
-      <c r="H17">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>125</v>
-      </c>
-      <c r="F18">
-        <v>25</v>
-      </c>
-      <c r="G18">
-        <v>175</v>
-      </c>
-      <c r="H18">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>156</v>
-      </c>
-      <c r="F19">
-        <v>31</v>
-      </c>
-      <c r="G19">
-        <v>184</v>
-      </c>
-      <c r="H19">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>195</v>
-      </c>
-      <c r="F20">
-        <v>39</v>
-      </c>
-      <c r="G20">
-        <v>195</v>
-      </c>
-      <c r="H20">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>125</v>
-      </c>
-      <c r="F21">
-        <v>125</v>
-      </c>
-      <c r="G21">
-        <v>220</v>
-      </c>
-      <c r="H21">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>156</v>
-      </c>
-      <c r="F24">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>195</v>
-      </c>
-      <c r="F25">
-        <v>39</v>
-      </c>
-      <c r="G25">
-        <v>195</v>
-      </c>
-      <c r="H25">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>125</v>
-      </c>
-      <c r="F26">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>156</v>
-      </c>
-      <c r="F27">
-        <v>31</v>
-      </c>
-      <c r="G27">
-        <v>226</v>
-      </c>
-      <c r="H27">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>244</v>
-      </c>
-      <c r="G28">
-        <v>244</v>
-      </c>
-      <c r="H28">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>156</v>
-      </c>
-      <c r="F30">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>125</v>
-      </c>
-      <c r="F31">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>156</v>
-      </c>
-      <c r="F32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>195</v>
-      </c>
-      <c r="F33">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>244</v>
-      </c>
-      <c r="F34">
-        <v>49</v>
-      </c>
-      <c r="G34">
-        <v>244</v>
-      </c>
-      <c r="H34">
-        <v>244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>160</v>
-      </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>160</v>
-      </c>
-      <c r="H2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>220</v>
-      </c>
-      <c r="H3">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>125</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>205</v>
-      </c>
-      <c r="H4">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>156</v>
-      </c>
-      <c r="F5">
-        <v>31</v>
-      </c>
-      <c r="G5">
-        <v>196</v>
-      </c>
-      <c r="H5">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>195</v>
-      </c>
-      <c r="F6">
-        <v>39</v>
-      </c>
-      <c r="G6">
-        <v>195</v>
-      </c>
-      <c r="H6">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>125</v>
-      </c>
-      <c r="F7">
-        <v>125</v>
-      </c>
-      <c r="G7">
-        <v>220</v>
-      </c>
-      <c r="H7">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>156</v>
-      </c>
-      <c r="F8">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>226</v>
-      </c>
-      <c r="H8">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>195</v>
-      </c>
-      <c r="F9">
-        <v>39</v>
-      </c>
-      <c r="G9">
-        <v>234</v>
-      </c>
-      <c r="H9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>244</v>
-      </c>
-      <c r="F10">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>244</v>
-      </c>
-      <c r="H10">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>150</v>
-      </c>
-      <c r="F11">
-        <v>150</v>
-      </c>
-      <c r="G11">
-        <v>269</v>
-      </c>
-      <c r="H11">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>120</v>
-      </c>
-      <c r="F12">
-        <v>30</v>
-      </c>
-      <c r="G12">
-        <v>120</v>
-      </c>
-      <c r="H12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>70</v>
-      </c>
-      <c r="F13">
-        <v>70</v>
-      </c>
-      <c r="G13">
-        <v>160</v>
-      </c>
-      <c r="H13">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>88</v>
-      </c>
-      <c r="F14">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>148</v>
-      </c>
-      <c r="H14">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>110</v>
-      </c>
-      <c r="F15">
-        <v>22</v>
-      </c>
-      <c r="G15">
-        <v>140</v>
-      </c>
-      <c r="H15">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>138</v>
-      </c>
-      <c r="F16">
-        <v>28</v>
-      </c>
-      <c r="G16">
-        <v>138</v>
-      </c>
-      <c r="H16">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>168</v>
-      </c>
-      <c r="H17">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>125</v>
-      </c>
-      <c r="F18">
-        <v>25</v>
-      </c>
-      <c r="G18">
-        <v>175</v>
-      </c>
-      <c r="H18">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>156</v>
-      </c>
-      <c r="F19">
-        <v>31</v>
-      </c>
-      <c r="G19">
-        <v>184</v>
-      </c>
-      <c r="H19">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>195</v>
-      </c>
-      <c r="F20">
-        <v>39</v>
-      </c>
-      <c r="G20">
-        <v>195</v>
-      </c>
-      <c r="H20">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>125</v>
-      </c>
-      <c r="F21">
-        <v>125</v>
-      </c>
-      <c r="G21">
-        <v>220</v>
-      </c>
-      <c r="H21">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>195</v>
-      </c>
-      <c r="F22">
-        <v>39</v>
-      </c>
-      <c r="G22">
-        <v>195</v>
-      </c>
-      <c r="H22">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>156</v>
-      </c>
-      <c r="F23">
-        <v>31</v>
-      </c>
-      <c r="G23">
-        <v>226</v>
-      </c>
-      <c r="H23">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>244</v>
-      </c>
-      <c r="G24">
-        <v>244</v>
-      </c>
-      <c r="H24">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>244</v>
-      </c>
-      <c r="F25">
-        <v>49</v>
-      </c>
-      <c r="G25">
-        <v>244</v>
-      </c>
-      <c r="H25">
-        <v>244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>